--- a/hardware/centroid_files/relay_logic_board-top.xlsx
+++ b/hardware/centroid_files/relay_logic_board-top.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon_ndungu/Documents/KiCad/relay_logic_board/centroid_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716C8BC-4837-C642-BF7F-539E33C68D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FACE0AB0-7C19-9D43-BCF8-695553C8DAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="relay_logic_board-top" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -133,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,20 +256,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -631,12 +608,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -993,16 +973,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E28"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,462 +1002,462 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>127.05</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>-113.8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>180</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>122.425</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>-112.8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>180</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>122.425</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>-109.7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>180</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>122.425</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>-111.25</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>180</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>122.8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>-105.5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>90</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>127.05</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>-112.25</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>180</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>157.55000000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>-123.3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>163.9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>-117.1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>180</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>161.05000000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>-117.95</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>270</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>148.80000000000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>-113.8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>90</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>163.9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>-111.3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>174.1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>-107.35</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>270</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>170.5</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>-101.2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>270</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>170.25</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>-84.05</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>270</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2">
-        <v>171</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="3">
+        <v>170.625</v>
+      </c>
+      <c r="C16" s="3">
         <v>-96.8</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>270</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2">
-        <v>170.8</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="3">
+        <v>170.67500000000001</v>
+      </c>
+      <c r="C17" s="3">
         <v>-79.849999999999994</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>270</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2">
-        <v>138.6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-73.599999999999994</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3">
+        <v>132.97499999999999</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-73.25</v>
+      </c>
+      <c r="D18" s="3">
         <v>180</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>138.97499999999999</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>-118.75</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>90</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>142.92500000000001</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>-118.72499999999999</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>270</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>131.07499999999999</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>-118.75</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>90</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>135.02500000000001</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>-118.75</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>270</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>154.51249999999999</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>-123.3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>180</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>172.4</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>-107.35</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>270</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2">
-        <v>170.75</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="3">
+        <v>170.42500000000001</v>
+      </c>
+      <c r="C25" s="3">
         <v>-94.25</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2">
-        <v>170.78749999999999</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-77.349999999999994</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3">
+        <v>170.46250000000001</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-77.275000000000006</v>
+      </c>
+      <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>154.9</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>-116.5</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>180</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>163.80000000000001</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>-114.2</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>90</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>6</v>
       </c>
     </row>
